--- a/Astronomy/earthMoonData.xlsx
+++ b/Astronomy/earthMoonData.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LBR_earth" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="LBR_Moon" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="positionData" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="28">
   <si>
     <t xml:space="preserve">L0</t>
   </si>
@@ -87,6 +88,24 @@
   </si>
   <si>
     <t xml:space="preserve">LongCoeff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sine coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cosine coefficient</t>
   </si>
 </sst>
 </file>
@@ -168,7 +187,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -183,6 +202,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -204,11 +231,11 @@
   </sheetPr>
   <dimension ref="B2:O135"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L66" activeCellId="0" sqref="L66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.24"/>
   </cols>
@@ -2833,7 +2860,7 @@
       <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.96"/>
@@ -2841,7 +2868,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.12"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4988,6 +5015,514 @@
       </c>
       <c r="M63" s="3" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B3:G35"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.61"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>6288774</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>-20905355</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1274027</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>-1699111</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
